--- a/wf_abs_words_frequency.xlsx
+++ b/wf_abs_words_frequency.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6037</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>™</t>
+          <t>point</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>732</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>take</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>fuck</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>673</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>649</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>realli</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>realli</t>
+          <t>way</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>tri</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>group</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>also</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>free</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>free</t>
+          <t>well</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>violenc</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>violenc</t>
+          <t>slogan</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>slogan</t>
+          <t>talk</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>side</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>leave</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>478</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>leave</t>
+          <t>much</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>liter</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>liter</t>
+          <t>american</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>everyon</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>everyon</t>
+          <t>shit</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>shit</t>
+          <t>someon</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>someon</t>
+          <t>give</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>anyon</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>anyon</t>
+          <t>look</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>come</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>ideolog</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ideolog</t>
+          <t>sure</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>delet</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sure</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>hate</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>racist</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hate</t>
+          <t>defend</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>racist</t>
+          <t>wolfenstein</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>defend</t>
+          <t>still</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>wolfenstein</t>
+          <t>someth</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>someth</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>pretti</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pretti</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>speech</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>play</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>happen</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>real</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>happen</t>
+          <t>believ</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>anyth</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>believ</t>
+          <t>conserv</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>anyth</t>
+          <t>great</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>conserv</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>war</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>controversi</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>mani</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>controversi</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>mani</t>
+          <t>video</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>fact</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>differ</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>differ</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>world</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>seem</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>far</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>seem</t>
+          <t>guy</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>countri</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>guy</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>countri</t>
+          <t>anti</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>lot</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>anti</t>
+          <t>find</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>lot</t>
+          <t>everi</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>fight</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>everi</t>
+          <t>post</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>fight</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>post</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>nazism</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>view</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>nazism</t>
+          <t>wrong</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>alt</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>alt</t>
+          <t>parti</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>parti</t>
+          <t>communist</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>punch</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>communist</t>
+          <t>noth</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>punch</t>
+          <t>man</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>noth</t>
+          <t>agre</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>agre</t>
+          <t>fascist</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>fascist</t>
+          <t>word</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>hitler</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>issu</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>hitler</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>issu</t>
+          <t>antifa</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>liber</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>antifa</t>
+          <t>new</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>liber</t>
+          <t>social</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>back</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>tell</t>
+          <t>mayb</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>mayb</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>supremacist</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>power</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>supremacist</t>
+          <t>let</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>part</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>nation</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>show</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>obvious</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>probabl</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>obvious</t>
+          <t>care</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>probabl</t>
+          <t>live</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>care</t>
+          <t>campaign</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>campaign</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>disagre</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>argument</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>statement</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>disagre</t>
+          <t>communism</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>refer</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>statement</t>
+          <t>evil</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>communism</t>
+          <t>wing</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151">
@@ -2388,14 +2388,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>refer</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/wf_abs_words_frequency.xlsx
+++ b/wf_abs_words_frequency.xlsx
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1540</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>communist</t>
+          <t>man</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>punch</t>
+          <t>communist</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>noth</t>
+          <t>punch</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>noth</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>hitler</t>
+          <t>read</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>issu</t>
+          <t>hitler</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>issu</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C122" t="n">
